--- a/src/data/viewers.xlsx
+++ b/src/data/viewers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Coursework\mcm_examples\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41740BD-9144-4A5E-9295-086337420FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FC905-1F72-42EA-83FD-FE8E244D9D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2300,7 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2323,28 +2323,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2631,54 +2628,54 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="8"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2709,34 +2706,34 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>16</v>
       </c>
       <c r="D5" s="12">
         <v>38722</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="12">
         <v>38774</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -2747,16 +2744,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2765,28 +2762,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>20</v>
       </c>
       <c r="D7" s="12">
         <v>38972</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="12">
         <v>39036</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -2797,16 +2794,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2815,28 +2812,28 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>19</v>
       </c>
       <c r="D9" s="12">
         <v>39160</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="12">
         <v>39224</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2845,16 +2842,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2863,26 +2860,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>21</v>
       </c>
       <c r="D11" s="12">
         <v>39349</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="12">
         <v>39413</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -2893,14 +2890,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
@@ -2909,26 +2906,26 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>20</v>
       </c>
       <c r="D13" s="12">
         <v>39524</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="12">
         <v>39588</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
         <v>44</v>
       </c>
@@ -2937,14 +2934,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +2969,7 @@
       <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -3002,7 +2999,7 @@
       <c r="G16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
@@ -3030,7 +3027,7 @@
       <c r="G17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -3041,28 +3038,28 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>19</v>
       </c>
       <c r="D18" s="12">
         <v>40259</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="12">
         <v>40323</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
         <v>61</v>
       </c>
@@ -3071,16 +3068,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
@@ -3106,7 +3103,7 @@
       <c r="G20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>68</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -3138,7 +3135,7 @@
       <c r="G21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
         <v>70</v>
       </c>
@@ -3166,7 +3163,7 @@
       <c r="G22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="9" t="s">
         <v>77</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -3196,7 +3193,7 @@
       <c r="G23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
         <v>79</v>
       </c>
@@ -3226,7 +3223,7 @@
       <c r="G24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -3258,7 +3255,7 @@
       <c r="G25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
         <v>88</v>
       </c>
@@ -3270,7 +3267,7 @@
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="5">
@@ -3288,13 +3285,13 @@
       <c r="G26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3302,7 +3299,7 @@
       <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="5">
         <v>12</v>
       </c>
@@ -3318,9 +3315,9 @@
       <c r="G27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -3344,7 +3341,7 @@
       <c r="G28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="9" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="7" t="s">
@@ -3376,7 +3373,7 @@
       <c r="G29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="7" t="s">
         <v>104</v>
       </c>
@@ -3404,13 +3401,13 @@
       <c r="G30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3436,55 +3433,55 @@
       <c r="G31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="11">
         <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>15</v>
       </c>
       <c r="D32" s="12">
         <v>42625</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>116</v>
       </c>
       <c r="F32" s="12">
         <v>42696</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -3508,61 +3505,61 @@
       <c r="G34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>12</v>
       </c>
       <c r="D35" s="12">
         <v>42996</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="12">
         <v>43060</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>26</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="5">
@@ -3580,15 +3577,15 @@
       <c r="G37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="5">
         <v>11</v>
       </c>
@@ -3618,7 +3615,7 @@
       <c r="A39" s="3">
         <v>28</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="5">
         <v>11</v>
       </c>
@@ -3648,7 +3645,7 @@
       <c r="A40" s="3">
         <v>29</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="5">
         <v>11</v>
       </c>
@@ -3678,7 +3675,7 @@
       <c r="A41" s="3">
         <v>30</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="5">
         <v>11</v>
       </c>
@@ -3708,7 +3705,7 @@
       <c r="A42" s="3">
         <v>32</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="5">
@@ -3740,7 +3737,7 @@
       <c r="A43" s="3">
         <v>33</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5">
         <v>10</v>
       </c>
@@ -3770,7 +3767,7 @@
       <c r="A44" s="3">
         <v>34</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="5">
         <v>11</v>
       </c>
@@ -3793,46 +3790,32 @@
       <c r="J44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
+  <mergeCells count="77">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:C14"/>
@@ -3846,32 +3829,45 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
